--- a/barplot_binning_figures/bar_plots.xlsx
+++ b/barplot_binning_figures/bar_plots.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" tabRatio="500"/>
+    <workbookView xWindow="15520" yWindow="460" windowWidth="22660" windowHeight="24280" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="30">
   <si>
     <t>Completion</t>
   </si>
@@ -93,6 +93,30 @@
   </si>
   <si>
     <t>metaWRAP default reassembly</t>
+  </si>
+  <si>
+    <t>default</t>
+  </si>
+  <si>
+    <t>&gt;80</t>
+  </si>
+  <si>
+    <t>&gt;90</t>
+  </si>
+  <si>
+    <t>&gt;95</t>
+  </si>
+  <si>
+    <t>default reassembly</t>
+  </si>
+  <si>
+    <t>&gt;80 reassembly</t>
+  </si>
+  <si>
+    <t>&gt;90 reassembly</t>
+  </si>
+  <si>
+    <t>&gt;95 reassembly</t>
   </si>
 </sst>
 </file>
@@ -272,28 +296,28 @@
                   <c:v>DAS_Tool</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>metaWRAP default</c:v>
+                  <c:v>default</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>metaWRAP &gt;80</c:v>
+                  <c:v>&gt;80</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>metaWRAP &gt;90</c:v>
+                  <c:v>&gt;90</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>metaWRAP &gt;95</c:v>
+                  <c:v>&gt;95</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>metaWRAP default reassembly</c:v>
+                  <c:v>default reassembly</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>metaWRAP &gt;80 reassembly</c:v>
+                  <c:v>&gt;80 reassembly</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>metaWRAP &gt;90 reassembly</c:v>
+                  <c:v>&gt;90 reassembly</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>metaWRAP &gt;95 reassembly</c:v>
+                  <c:v>&gt;95 reassembly</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -451,28 +475,28 @@
                   <c:v>DAS_Tool</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>metaWRAP default</c:v>
+                  <c:v>default</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>metaWRAP &gt;80</c:v>
+                  <c:v>&gt;80</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>metaWRAP &gt;90</c:v>
+                  <c:v>&gt;90</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>metaWRAP &gt;95</c:v>
+                  <c:v>&gt;95</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>metaWRAP default reassembly</c:v>
+                  <c:v>default reassembly</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>metaWRAP &gt;80 reassembly</c:v>
+                  <c:v>&gt;80 reassembly</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>metaWRAP &gt;90 reassembly</c:v>
+                  <c:v>&gt;90 reassembly</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>metaWRAP &gt;95 reassembly</c:v>
+                  <c:v>&gt;95 reassembly</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -632,28 +656,28 @@
                   <c:v>DAS_Tool</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>metaWRAP default</c:v>
+                  <c:v>default</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>metaWRAP &gt;80</c:v>
+                  <c:v>&gt;80</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>metaWRAP &gt;90</c:v>
+                  <c:v>&gt;90</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>metaWRAP &gt;95</c:v>
+                  <c:v>&gt;95</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>metaWRAP default reassembly</c:v>
+                  <c:v>default reassembly</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>metaWRAP &gt;80 reassembly</c:v>
+                  <c:v>&gt;80 reassembly</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>metaWRAP &gt;90 reassembly</c:v>
+                  <c:v>&gt;90 reassembly</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>metaWRAP &gt;95 reassembly</c:v>
+                  <c:v>&gt;95 reassembly</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -813,28 +837,28 @@
                   <c:v>DAS_Tool</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>metaWRAP default</c:v>
+                  <c:v>default</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>metaWRAP &gt;80</c:v>
+                  <c:v>&gt;80</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>metaWRAP &gt;90</c:v>
+                  <c:v>&gt;90</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>metaWRAP &gt;95</c:v>
+                  <c:v>&gt;95</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>metaWRAP default reassembly</c:v>
+                  <c:v>default reassembly</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>metaWRAP &gt;80 reassembly</c:v>
+                  <c:v>&gt;80 reassembly</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>metaWRAP &gt;90 reassembly</c:v>
+                  <c:v>&gt;90 reassembly</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>metaWRAP &gt;95 reassembly</c:v>
+                  <c:v>&gt;95 reassembly</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -899,11 +923,11 @@
         </c:dLbls>
         <c:gapWidth val="20"/>
         <c:overlap val="100"/>
-        <c:axId val="-2101713968"/>
-        <c:axId val="-2101710576"/>
+        <c:axId val="-2076606992"/>
+        <c:axId val="-2043095744"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2101713968"/>
+        <c:axId val="-2076606992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -946,7 +970,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2101710576"/>
+        <c:crossAx val="-2043095744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -954,7 +978,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2101710576"/>
+        <c:axId val="-2043095744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1005,7 +1029,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2101713968"/>
+        <c:crossAx val="-2076606992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1850,11 +1874,11 @@
         </c:dLbls>
         <c:gapWidth val="20"/>
         <c:overlap val="100"/>
-        <c:axId val="-2103201872"/>
-        <c:axId val="-2103205264"/>
+        <c:axId val="-2077055520"/>
+        <c:axId val="-2079411968"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2103201872"/>
+        <c:axId val="-2077055520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1897,7 +1921,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2103205264"/>
+        <c:crossAx val="-2079411968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1905,7 +1929,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2103205264"/>
+        <c:axId val="-2079411968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1955,7 +1979,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2103201872"/>
+        <c:crossAx val="-2077055520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2123,6 +2147,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2301,6 +2326,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2481,6 +2507,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2661,6 +2688,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2786,11 +2814,11 @@
         </c:dLbls>
         <c:gapWidth val="20"/>
         <c:overlap val="100"/>
-        <c:axId val="-2103273136"/>
-        <c:axId val="-2103276528"/>
+        <c:axId val="-2103275744"/>
+        <c:axId val="-2069281984"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2103273136"/>
+        <c:axId val="-2103275744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2833,7 +2861,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2103276528"/>
+        <c:crossAx val="-2069281984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2841,7 +2869,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2103276528"/>
+        <c:axId val="-2069281984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2891,7 +2919,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2103273136"/>
+        <c:crossAx val="-2103275744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2905,6 +2933,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4864,8 +4893,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I7" zoomScale="160" zoomScaleNormal="87" zoomScalePageLayoutView="87" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+    <sheetView tabSelected="1" zoomScale="168" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9:O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5148,28 +5177,28 @@
         <v>6</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="I8" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="J8" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="K8" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="L8" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="M8" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="N8" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="O8" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.2">
@@ -5204,31 +5233,31 @@
         <v>64</v>
       </c>
       <c r="I9">
-        <f t="shared" ref="I9:O9" si="1">I3</f>
+        <f>I3</f>
         <v>64</v>
       </c>
       <c r="J9">
-        <f t="shared" si="1"/>
+        <f>J3</f>
         <v>65</v>
       </c>
       <c r="K9">
-        <f t="shared" si="1"/>
+        <f>K3</f>
         <v>72</v>
       </c>
       <c r="L9">
-        <f t="shared" si="1"/>
+        <f>L3</f>
         <v>75</v>
       </c>
       <c r="M9">
-        <f t="shared" si="1"/>
+        <f>M3</f>
         <v>73</v>
       </c>
       <c r="N9">
-        <f t="shared" si="1"/>
+        <f>N3</f>
         <v>72</v>
       </c>
       <c r="O9">
-        <f t="shared" si="1"/>
+        <f>O3</f>
         <v>76</v>
       </c>
     </row>
@@ -5240,55 +5269,55 @@
         <v>12</v>
       </c>
       <c r="C10">
-        <f t="shared" ref="C10:H12" si="2">C4-C3</f>
+        <f t="shared" ref="C10:H12" si="1">C4-C3</f>
         <v>39</v>
       </c>
       <c r="D10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="E10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="F10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>53</v>
       </c>
       <c r="G10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>43</v>
       </c>
       <c r="H10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>53</v>
       </c>
       <c r="I10">
-        <f t="shared" ref="I10:O10" si="3">I4-I3</f>
+        <f>I4-I3</f>
         <v>54</v>
       </c>
       <c r="J10">
-        <f t="shared" si="3"/>
+        <f>J4-J3</f>
         <v>63</v>
       </c>
       <c r="K10">
-        <f t="shared" si="3"/>
+        <f>K4-K3</f>
         <v>0</v>
       </c>
       <c r="L10">
-        <f t="shared" si="3"/>
+        <f>L4-L3</f>
         <v>57</v>
       </c>
       <c r="M10">
-        <f t="shared" si="3"/>
+        <f>M4-M3</f>
         <v>56</v>
       </c>
       <c r="N10">
-        <f t="shared" si="3"/>
+        <f>N4-N3</f>
         <v>62</v>
       </c>
       <c r="O10">
-        <f t="shared" si="3"/>
+        <f>O4-O3</f>
         <v>0</v>
       </c>
     </row>
@@ -5300,55 +5329,55 @@
         <v>11</v>
       </c>
       <c r="C11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="D11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="E11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="F11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>44</v>
       </c>
       <c r="G11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="H11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>41</v>
       </c>
       <c r="I11">
-        <f t="shared" ref="I11:O11" si="4">I5-I4</f>
+        <f>I5-I4</f>
         <v>46</v>
       </c>
       <c r="J11">
-        <f t="shared" si="4"/>
+        <f>J5-J4</f>
         <v>0</v>
       </c>
       <c r="K11">
-        <f t="shared" si="4"/>
+        <f>K5-K4</f>
         <v>0</v>
       </c>
       <c r="L11">
-        <f t="shared" si="4"/>
+        <f>L5-L4</f>
         <v>42</v>
       </c>
       <c r="M11">
-        <f t="shared" si="4"/>
+        <f>M5-M4</f>
         <v>44</v>
       </c>
       <c r="N11">
-        <f t="shared" si="4"/>
+        <f>N5-N4</f>
         <v>0</v>
       </c>
       <c r="O11">
-        <f t="shared" si="4"/>
+        <f>O5-O4</f>
         <v>0</v>
       </c>
     </row>
@@ -5360,55 +5389,55 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="D12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="E12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="F12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="G12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="H12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="I12">
-        <f t="shared" ref="I12:O12" si="5">I6-I5</f>
+        <f>I6-I5</f>
         <v>0</v>
       </c>
       <c r="J12">
-        <f t="shared" si="5"/>
+        <f>J6-J5</f>
         <v>0</v>
       </c>
       <c r="K12">
-        <f t="shared" si="5"/>
+        <f>K6-K5</f>
         <v>0</v>
       </c>
       <c r="L12">
-        <f t="shared" si="5"/>
+        <f>L6-L5</f>
         <v>25</v>
       </c>
       <c r="M12">
-        <f t="shared" si="5"/>
+        <f>M6-M5</f>
         <v>0</v>
       </c>
       <c r="N12">
-        <f t="shared" si="5"/>
+        <f>N6-N5</f>
         <v>0</v>
       </c>
       <c r="O12">
-        <f t="shared" si="5"/>
+        <f>O6-O5</f>
         <v>0</v>
       </c>
     </row>
@@ -5713,55 +5742,55 @@
         <v>13</v>
       </c>
       <c r="C24">
-        <f t="shared" ref="C24:H24" si="6">C18</f>
+        <f t="shared" ref="C24:G24" si="2">C18</f>
         <v>26</v>
       </c>
       <c r="D24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="E24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>31</v>
       </c>
       <c r="F24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="G24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="H24">
-        <f t="shared" si="6"/>
+        <f>H18</f>
         <v>33</v>
       </c>
       <c r="I24">
-        <f t="shared" ref="I24:O24" si="7">I18</f>
+        <f>I18</f>
         <v>33</v>
       </c>
       <c r="J24">
-        <f t="shared" si="7"/>
+        <f>J18</f>
         <v>36</v>
       </c>
       <c r="K24">
-        <f t="shared" si="7"/>
+        <f>K18</f>
         <v>46</v>
       </c>
       <c r="L24">
-        <f t="shared" si="7"/>
+        <f>L18</f>
         <v>42</v>
       </c>
       <c r="M24">
-        <f t="shared" si="7"/>
+        <f>M18</f>
         <v>41</v>
       </c>
       <c r="N24">
-        <f t="shared" si="7"/>
+        <f>N18</f>
         <v>43</v>
       </c>
       <c r="O24">
-        <f t="shared" si="7"/>
+        <f>O18</f>
         <v>53</v>
       </c>
     </row>
@@ -5773,55 +5802,55 @@
         <v>12</v>
       </c>
       <c r="C25">
-        <f t="shared" ref="C25:H27" si="8">C19-C18</f>
+        <f t="shared" ref="C25:G27" si="3">C19-C18</f>
         <v>28</v>
       </c>
       <c r="D25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="E25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="F25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>21</v>
       </c>
       <c r="G25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>23</v>
       </c>
       <c r="H25">
-        <f t="shared" si="8"/>
+        <f>H19-H18</f>
         <v>33</v>
       </c>
       <c r="I25">
-        <f t="shared" ref="I25:O25" si="9">I19-I18</f>
+        <f>I19-I18</f>
         <v>33</v>
       </c>
       <c r="J25">
-        <f t="shared" si="9"/>
+        <f>J19-J18</f>
         <v>40</v>
       </c>
       <c r="K25">
-        <f t="shared" si="9"/>
+        <f>K19-K18</f>
         <v>0</v>
       </c>
       <c r="L25">
-        <f t="shared" si="9"/>
+        <f>L19-L18</f>
         <v>36</v>
       </c>
       <c r="M25">
-        <f t="shared" si="9"/>
+        <f>M19-M18</f>
         <v>37</v>
       </c>
       <c r="N25">
-        <f t="shared" si="9"/>
+        <f>N19-N18</f>
         <v>37</v>
       </c>
       <c r="O25">
-        <f t="shared" si="9"/>
+        <f>O19-O18</f>
         <v>0</v>
       </c>
     </row>
@@ -5833,55 +5862,55 @@
         <v>11</v>
       </c>
       <c r="C26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>34</v>
       </c>
       <c r="D26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="E26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="F26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>34</v>
       </c>
       <c r="G26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>21</v>
       </c>
       <c r="H26">
-        <f t="shared" si="8"/>
+        <f>H20-H19</f>
         <v>37</v>
       </c>
       <c r="I26">
-        <f t="shared" ref="I26:O26" si="10">I20-I19</f>
+        <f>I20-I19</f>
         <v>41</v>
       </c>
       <c r="J26">
-        <f t="shared" si="10"/>
+        <f>J20-J19</f>
         <v>0</v>
       </c>
       <c r="K26">
-        <f t="shared" si="10"/>
+        <f>K20-K19</f>
         <v>0</v>
       </c>
       <c r="L26">
-        <f t="shared" si="10"/>
+        <f>L20-L19</f>
         <v>42</v>
       </c>
       <c r="M26">
-        <f t="shared" si="10"/>
+        <f>M20-M19</f>
         <v>41</v>
       </c>
       <c r="N26">
-        <f t="shared" si="10"/>
+        <f>N20-N19</f>
         <v>0</v>
       </c>
       <c r="O26">
-        <f t="shared" si="10"/>
+        <f>O20-O19</f>
         <v>0</v>
       </c>
     </row>
@@ -5893,55 +5922,55 @@
         <v>10</v>
       </c>
       <c r="C27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="D27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="E27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="F27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="G27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="H27">
-        <f t="shared" si="8"/>
+        <f>H21-H20</f>
         <v>29</v>
       </c>
       <c r="I27">
-        <f t="shared" ref="I27:O27" si="11">I21-I20</f>
+        <f>I21-I20</f>
         <v>0</v>
       </c>
       <c r="J27">
-        <f t="shared" si="11"/>
+        <f>J21-J20</f>
         <v>0</v>
       </c>
       <c r="K27">
-        <f t="shared" si="11"/>
+        <f>K21-K20</f>
         <v>0</v>
       </c>
       <c r="L27">
-        <f t="shared" si="11"/>
+        <f>L21-L20</f>
         <v>26</v>
       </c>
       <c r="M27">
-        <f t="shared" si="11"/>
+        <f>M21-M20</f>
         <v>0</v>
       </c>
       <c r="N27">
-        <f t="shared" si="11"/>
+        <f>N21-N20</f>
         <v>0</v>
       </c>
       <c r="O27">
-        <f t="shared" si="11"/>
+        <f>O21-O20</f>
         <v>0</v>
       </c>
     </row>
@@ -6235,55 +6264,55 @@
         <v>13</v>
       </c>
       <c r="C39">
-        <f t="shared" ref="C39:H39" si="12">C33</f>
+        <f t="shared" ref="C39:G39" si="4">C33</f>
         <v>5</v>
       </c>
       <c r="D39">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="E39">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="F39">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="G39">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="H39">
-        <f t="shared" si="12"/>
+        <f>H33</f>
         <v>6</v>
       </c>
       <c r="I39">
-        <f t="shared" ref="I39:O39" si="13">I33</f>
+        <f>I33</f>
         <v>6</v>
       </c>
       <c r="J39">
-        <f t="shared" si="13"/>
+        <f>J33</f>
         <v>6</v>
       </c>
       <c r="K39">
-        <f t="shared" si="13"/>
+        <f>K33</f>
         <v>6</v>
       </c>
       <c r="L39">
-        <f t="shared" si="13"/>
+        <f>L33</f>
         <v>6</v>
       </c>
       <c r="M39">
-        <f t="shared" si="13"/>
+        <f>M33</f>
         <v>6</v>
       </c>
       <c r="N39">
-        <f t="shared" si="13"/>
+        <f>N33</f>
         <v>6</v>
       </c>
       <c r="O39">
-        <f t="shared" si="13"/>
+        <f>O33</f>
         <v>6</v>
       </c>
     </row>
@@ -6295,55 +6324,55 @@
         <v>12</v>
       </c>
       <c r="C40">
-        <f t="shared" ref="C40:H42" si="14">C34-C33</f>
+        <f t="shared" ref="C40:G42" si="5">C34-C33</f>
         <v>3</v>
       </c>
       <c r="D40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="E40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="F40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="G40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="H40">
-        <f t="shared" si="14"/>
+        <f>H34-H33</f>
         <v>9</v>
       </c>
       <c r="I40">
-        <f t="shared" ref="I40:O40" si="15">I34-I33</f>
+        <f>I34-I33</f>
         <v>9</v>
       </c>
       <c r="J40">
-        <f t="shared" si="15"/>
+        <f>J34-J33</f>
         <v>9</v>
       </c>
       <c r="K40">
-        <f t="shared" si="15"/>
+        <f>K34-K33</f>
         <v>0</v>
       </c>
       <c r="L40">
-        <f t="shared" si="15"/>
+        <f>L34-L33</f>
         <v>9</v>
       </c>
       <c r="M40">
-        <f t="shared" si="15"/>
+        <f>M34-M33</f>
         <v>9</v>
       </c>
       <c r="N40">
-        <f t="shared" si="15"/>
+        <f>N34-N33</f>
         <v>9</v>
       </c>
       <c r="O40">
-        <f t="shared" si="15"/>
+        <f>O34-O33</f>
         <v>0</v>
       </c>
     </row>
@@ -6355,55 +6384,55 @@
         <v>11</v>
       </c>
       <c r="C41">
-        <f t="shared" si="14"/>
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
       <c r="D41">
-        <f t="shared" si="14"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="E41">
-        <f t="shared" si="14"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="F41">
-        <f t="shared" si="14"/>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="G41">
-        <f t="shared" si="14"/>
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
       <c r="H41">
-        <f t="shared" si="14"/>
+        <f>H35-H34</f>
         <v>14</v>
       </c>
       <c r="I41">
-        <f t="shared" ref="I41:O41" si="16">I35-I34</f>
+        <f>I35-I34</f>
         <v>15</v>
       </c>
       <c r="J41">
-        <f t="shared" si="16"/>
+        <f>J35-J34</f>
         <v>0</v>
       </c>
       <c r="K41">
-        <f t="shared" si="16"/>
+        <f>K35-K34</f>
         <v>0</v>
       </c>
       <c r="L41">
-        <f t="shared" si="16"/>
+        <f>L35-L34</f>
         <v>14</v>
       </c>
       <c r="M41">
-        <f t="shared" si="16"/>
+        <f>M35-M34</f>
         <v>14</v>
       </c>
       <c r="N41">
-        <f t="shared" si="16"/>
+        <f>N35-N34</f>
         <v>0</v>
       </c>
       <c r="O41">
-        <f t="shared" si="16"/>
+        <f>O35-O34</f>
         <v>0</v>
       </c>
     </row>
@@ -6415,55 +6444,55 @@
         <v>10</v>
       </c>
       <c r="C42">
-        <f t="shared" si="14"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="D42">
-        <f t="shared" si="14"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="E42">
-        <f t="shared" si="14"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="F42">
-        <f t="shared" si="14"/>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="G42">
-        <f t="shared" si="14"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="H42">
-        <f t="shared" si="14"/>
+        <f>H36-H35</f>
         <v>18</v>
       </c>
       <c r="I42">
-        <f t="shared" ref="I42:O42" si="17">I36-I35</f>
+        <f>I36-I35</f>
         <v>0</v>
       </c>
       <c r="J42">
-        <f t="shared" si="17"/>
+        <f>J36-J35</f>
         <v>0</v>
       </c>
       <c r="K42">
-        <f t="shared" si="17"/>
+        <f>K36-K35</f>
         <v>0</v>
       </c>
       <c r="L42">
-        <f t="shared" si="17"/>
+        <f>L36-L35</f>
         <v>18</v>
       </c>
       <c r="M42">
-        <f t="shared" si="17"/>
+        <f>M36-M35</f>
         <v>0</v>
       </c>
       <c r="N42">
-        <f t="shared" si="17"/>
+        <f>N36-N35</f>
         <v>0</v>
       </c>
       <c r="O42">
-        <f t="shared" si="17"/>
+        <f>O36-O35</f>
         <v>0</v>
       </c>
     </row>
